--- a/database/seeds/Catalogos/Alimentacion.xlsx
+++ b/database/seeds/Catalogos/Alimentacion.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="513">
   <si>
     <t>Manojo</t>
   </si>
@@ -1564,6 +1564,9 @@
   </si>
   <si>
     <t>Zanahoria grande</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1950,10 +1953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D326"/>
+  <dimension ref="A1:E326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A290" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E325" sqref="E325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1965,7 +1968,7 @@
     <col min="5" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1979,7 +1982,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1993,7 +1996,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2007,7 +2010,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2021,7 +2024,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2035,7 +2038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -2048,8 +2051,11 @@
       <c r="D6" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2063,7 +2069,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2077,7 +2083,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -2090,8 +2096,11 @@
       <c r="D9" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -2104,8 +2113,11 @@
       <c r="D10" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -2118,8 +2130,11 @@
       <c r="D11" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -2132,8 +2147,11 @@
       <c r="D12" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -2146,8 +2164,11 @@
       <c r="D13" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -2160,8 +2181,11 @@
       <c r="D14" s="3">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -2174,8 +2198,11 @@
       <c r="D15" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -2188,8 +2215,11 @@
       <c r="D16" s="3">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -2203,7 +2233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -2217,7 +2247,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -2231,7 +2261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -2245,7 +2275,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -2258,8 +2288,11 @@
       <c r="D21" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -2273,7 +2306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -2287,7 +2320,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -2301,7 +2334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -2315,7 +2348,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
@@ -2329,7 +2362,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
@@ -2342,8 +2375,11 @@
       <c r="D27" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>18</v>
       </c>
@@ -2356,8 +2392,11 @@
       <c r="D28" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>19</v>
       </c>
@@ -2371,7 +2410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -2384,8 +2423,11 @@
       <c r="D30" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>21</v>
       </c>
@@ -2398,8 +2440,11 @@
       <c r="D31" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>22</v>
       </c>
@@ -2412,8 +2457,11 @@
       <c r="D32" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
@@ -2427,7 +2475,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -2440,8 +2488,11 @@
       <c r="D34" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>24</v>
       </c>
@@ -2454,8 +2505,11 @@
       <c r="D35" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>24</v>
       </c>
@@ -2468,8 +2522,11 @@
       <c r="D36" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>24</v>
       </c>
@@ -2482,8 +2539,11 @@
       <c r="D37" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>24</v>
       </c>
@@ -2496,8 +2556,11 @@
       <c r="D38" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2573,11 @@
       <c r="D39" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>24</v>
       </c>
@@ -2524,8 +2590,11 @@
       <c r="D40" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>25</v>
       </c>
@@ -2538,8 +2607,11 @@
       <c r="D41" s="3">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>26</v>
       </c>
@@ -2552,8 +2624,11 @@
       <c r="D42" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>27</v>
       </c>
@@ -2566,8 +2641,11 @@
       <c r="D43" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>28</v>
       </c>
@@ -2580,8 +2658,11 @@
       <c r="D44" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>29</v>
       </c>
@@ -2594,8 +2675,11 @@
       <c r="D45" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>30</v>
       </c>
@@ -2608,8 +2692,11 @@
       <c r="D46" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>31</v>
       </c>
@@ -2622,8 +2709,11 @@
       <c r="D47" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2726,11 @@
       <c r="D48" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>33</v>
       </c>
@@ -2650,8 +2743,11 @@
       <c r="D49" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>33</v>
       </c>
@@ -2664,8 +2760,11 @@
       <c r="D50" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>34</v>
       </c>
@@ -2679,7 +2778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
@@ -2693,7 +2792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>34</v>
       </c>
@@ -2707,7 +2806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>34</v>
       </c>
@@ -2721,7 +2820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>35</v>
       </c>
@@ -2734,8 +2833,11 @@
       <c r="D55" s="3">
         <v>140</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>36</v>
       </c>
@@ -2748,8 +2850,11 @@
       <c r="D56" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>37</v>
       </c>
@@ -2762,8 +2867,11 @@
       <c r="D57" s="3">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>38</v>
       </c>
@@ -2777,7 +2885,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>38</v>
       </c>
@@ -2791,7 +2899,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>39</v>
       </c>
@@ -2805,7 +2913,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>38</v>
       </c>
@@ -2819,7 +2927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>38</v>
       </c>
@@ -2833,7 +2941,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>39</v>
       </c>
@@ -2847,7 +2955,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>38</v>
       </c>
@@ -2861,7 +2969,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>38</v>
       </c>
@@ -2875,7 +2983,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>38</v>
       </c>
@@ -2889,7 +2997,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>38</v>
       </c>
@@ -2903,7 +3011,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>40</v>
       </c>
@@ -2917,7 +3025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>41</v>
       </c>
@@ -2930,8 +3038,11 @@
       <c r="D69" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>42</v>
       </c>
@@ -2944,8 +3055,11 @@
       <c r="D70" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>43</v>
       </c>
@@ -2958,8 +3072,11 @@
       <c r="D71" s="3">
         <v>24.25</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>44</v>
       </c>
@@ -2972,8 +3089,11 @@
       <c r="D72" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>43</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="D73" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>44</v>
       </c>
@@ -3000,8 +3123,11 @@
       <c r="D74" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>45</v>
       </c>
@@ -3014,8 +3140,11 @@
       <c r="D75" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>46</v>
       </c>
@@ -3028,8 +3157,11 @@
       <c r="D76" s="3">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>47</v>
       </c>
@@ -3042,8 +3174,11 @@
       <c r="D77" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>48</v>
       </c>
@@ -3057,7 +3192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>48</v>
       </c>
@@ -3071,7 +3206,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>49</v>
       </c>
@@ -3084,8 +3219,11 @@
       <c r="D80" s="4">
         <v>26</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>50</v>
       </c>
@@ -3098,8 +3236,11 @@
       <c r="D81" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>51</v>
       </c>
@@ -3112,8 +3253,11 @@
       <c r="D82" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>52</v>
       </c>
@@ -3126,8 +3270,11 @@
       <c r="D83" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>53</v>
       </c>
@@ -3141,7 +3288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>53</v>
       </c>
@@ -3155,7 +3302,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>54</v>
       </c>
@@ -3169,7 +3316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>53</v>
       </c>
@@ -3183,7 +3330,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>55</v>
       </c>
@@ -3197,7 +3344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>56</v>
       </c>
@@ -3211,7 +3358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>57</v>
       </c>
@@ -3224,8 +3371,11 @@
       <c r="D90" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>58</v>
       </c>
@@ -3239,7 +3389,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>59</v>
       </c>
@@ -3252,8 +3402,11 @@
       <c r="D92" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>60</v>
       </c>
@@ -3266,8 +3419,11 @@
       <c r="D93" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>61</v>
       </c>
@@ -3280,8 +3436,11 @@
       <c r="D94" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>62</v>
       </c>
@@ -3294,8 +3453,11 @@
       <c r="D95" s="3">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>63</v>
       </c>
@@ -3309,7 +3471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>64</v>
       </c>
@@ -3323,7 +3485,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>65</v>
       </c>
@@ -3336,8 +3498,11 @@
       <c r="D98" s="3">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>65</v>
       </c>
@@ -3350,8 +3515,11 @@
       <c r="D99" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>66</v>
       </c>
@@ -3364,8 +3532,11 @@
       <c r="D100" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>67</v>
       </c>
@@ -3378,8 +3549,11 @@
       <c r="D101" s="3">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>68</v>
       </c>
@@ -3393,7 +3567,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>68</v>
       </c>
@@ -3407,7 +3581,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>69</v>
       </c>
@@ -3420,8 +3594,11 @@
       <c r="D104" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>70</v>
       </c>
@@ -3434,8 +3611,11 @@
       <c r="D105" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>71</v>
       </c>
@@ -3448,8 +3628,11 @@
       <c r="D106" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>72</v>
       </c>
@@ -3463,7 +3646,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>72</v>
       </c>
@@ -3477,7 +3660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>72</v>
       </c>
@@ -3491,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>72</v>
       </c>
@@ -3505,7 +3688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>72</v>
       </c>
@@ -3519,7 +3702,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>72</v>
       </c>
@@ -3533,7 +3716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>73</v>
       </c>
@@ -3547,7 +3730,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>74</v>
       </c>
@@ -3561,7 +3744,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>74</v>
       </c>
@@ -3575,7 +3758,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>74</v>
       </c>
@@ -3589,7 +3772,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>74</v>
       </c>
@@ -3603,7 +3786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>74</v>
       </c>
@@ -3617,7 +3800,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>75</v>
       </c>
@@ -3631,7 +3814,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>76</v>
       </c>
@@ -3644,8 +3827,11 @@
       <c r="D120" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E120" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>77</v>
       </c>
@@ -3658,8 +3844,11 @@
       <c r="D121" s="3">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E121" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>78</v>
       </c>
@@ -3673,7 +3862,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>79</v>
       </c>
@@ -3687,7 +3876,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>80</v>
       </c>
@@ -3701,7 +3890,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>81</v>
       </c>
@@ -3715,7 +3904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>82</v>
       </c>
@@ -3729,7 +3918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>82</v>
       </c>
@@ -3743,7 +3932,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>83</v>
       </c>
@@ -3757,7 +3946,7 @@
         <v>21.25</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>83</v>
       </c>
@@ -3771,7 +3960,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>83</v>
       </c>
@@ -3785,7 +3974,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>84</v>
       </c>
@@ -3799,7 +3988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>83</v>
       </c>
@@ -3813,7 +4002,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>83</v>
       </c>
@@ -3827,7 +4016,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>85</v>
       </c>
@@ -3840,8 +4029,11 @@
       <c r="D134" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E134" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>86</v>
       </c>
@@ -3854,8 +4046,11 @@
       <c r="D135" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E135" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>87</v>
       </c>
@@ -3868,8 +4063,11 @@
       <c r="D136" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E136" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>88</v>
       </c>
@@ -3883,7 +4081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>88</v>
       </c>
@@ -3897,7 +4095,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>89</v>
       </c>
@@ -3911,7 +4109,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>90</v>
       </c>
@@ -3925,7 +4123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>90</v>
       </c>
@@ -3939,7 +4137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>90</v>
       </c>
@@ -3953,7 +4151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>90</v>
       </c>
@@ -3967,7 +4165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>90</v>
       </c>
@@ -3981,7 +4179,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>90</v>
       </c>
@@ -3995,7 +4193,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>91</v>
       </c>
@@ -4009,7 +4207,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>92</v>
       </c>
@@ -4023,7 +4221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>93</v>
       </c>
@@ -4037,7 +4235,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>94</v>
       </c>
@@ -4051,7 +4249,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>94</v>
       </c>
@@ -4065,7 +4263,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>94</v>
       </c>
@@ -4079,7 +4277,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>94</v>
       </c>
@@ -4093,7 +4291,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>95</v>
       </c>
@@ -4107,7 +4305,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>96</v>
       </c>
@@ -4120,8 +4318,11 @@
       <c r="D154" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E154" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>97</v>
       </c>
@@ -4135,7 +4336,7 @@
         <v>230.75</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>97</v>
       </c>
@@ -4149,7 +4350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>97</v>
       </c>
@@ -4163,7 +4364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>97</v>
       </c>
@@ -4177,7 +4378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>97</v>
       </c>
@@ -4191,7 +4392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>97</v>
       </c>
@@ -4205,7 +4406,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>97</v>
       </c>
@@ -4219,7 +4420,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>97</v>
       </c>
@@ -4233,7 +4434,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>97</v>
       </c>
@@ -4247,7 +4448,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>97</v>
       </c>
@@ -4261,7 +4462,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>97</v>
       </c>
@@ -4275,7 +4476,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>97</v>
       </c>
@@ -4289,7 +4490,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>97</v>
       </c>
@@ -4303,7 +4504,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>98</v>
       </c>
@@ -4316,8 +4517,11 @@
       <c r="D168" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E168" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>99</v>
       </c>
@@ -4330,8 +4534,11 @@
       <c r="D169" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E169" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>100</v>
       </c>
@@ -4344,8 +4551,11 @@
       <c r="D170" s="3">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E170" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>100</v>
       </c>
@@ -4358,8 +4568,11 @@
       <c r="D171" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E171" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>101</v>
       </c>
@@ -4372,8 +4585,11 @@
       <c r="D172" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E172" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>102</v>
       </c>
@@ -4386,8 +4602,11 @@
       <c r="D173" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E173" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>103</v>
       </c>
@@ -4400,8 +4619,11 @@
       <c r="D174" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E174" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>104</v>
       </c>
@@ -4414,8 +4636,11 @@
       <c r="D175" s="3">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E175" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>105</v>
       </c>
@@ -4428,8 +4653,11 @@
       <c r="D176" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E176" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>106</v>
       </c>
@@ -4443,7 +4671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>107</v>
       </c>
@@ -4456,8 +4684,11 @@
       <c r="D178" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E178" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>108</v>
       </c>
@@ -4470,8 +4701,11 @@
       <c r="D179" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E179" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>109</v>
       </c>
@@ -4484,8 +4718,11 @@
       <c r="D180" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E180" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>110</v>
       </c>
@@ -4498,8 +4735,11 @@
       <c r="D181" s="3">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E181" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>111</v>
       </c>
@@ -4512,8 +4752,11 @@
       <c r="D182" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E182" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>112</v>
       </c>
@@ -4526,8 +4769,11 @@
       <c r="D183" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E183" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>113</v>
       </c>
@@ -4541,7 +4787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>114</v>
       </c>
@@ -4555,7 +4801,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>114</v>
       </c>
@@ -4569,7 +4815,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>114</v>
       </c>
@@ -4583,7 +4829,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>115</v>
       </c>
@@ -4596,8 +4842,11 @@
       <c r="D188" s="3">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E188" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>116</v>
       </c>
@@ -4610,8 +4859,11 @@
       <c r="D189" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E189" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>117</v>
       </c>
@@ -4625,7 +4877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>118</v>
       </c>
@@ -4638,8 +4890,11 @@
       <c r="D191" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E191" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>119</v>
       </c>
@@ -4652,8 +4907,11 @@
       <c r="D192" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E192" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>120</v>
       </c>
@@ -4667,7 +4925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>121</v>
       </c>
@@ -4681,7 +4939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>121</v>
       </c>
@@ -4695,7 +4953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>122</v>
       </c>
@@ -4708,8 +4966,11 @@
       <c r="D196" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E196" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>123</v>
       </c>
@@ -4722,8 +4983,11 @@
       <c r="D197" s="3">
         <v>115</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E197" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>124</v>
       </c>
@@ -4736,8 +5000,11 @@
       <c r="D198" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E198" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>125</v>
       </c>
@@ -4750,8 +5017,11 @@
       <c r="D199" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E199" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>126</v>
       </c>
@@ -4764,8 +5034,11 @@
       <c r="D200" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E200" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>127</v>
       </c>
@@ -4778,8 +5051,11 @@
       <c r="D201" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E201" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>128</v>
       </c>
@@ -4792,8 +5068,11 @@
       <c r="D202" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E202" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>129</v>
       </c>
@@ -4806,8 +5085,11 @@
       <c r="D203" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E203" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>130</v>
       </c>
@@ -4820,8 +5102,11 @@
       <c r="D204" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E204" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>131</v>
       </c>
@@ -4834,8 +5119,11 @@
       <c r="D205" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E205" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>132</v>
       </c>
@@ -4848,8 +5136,11 @@
       <c r="D206" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E206" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>133</v>
       </c>
@@ -4862,8 +5153,11 @@
       <c r="D207" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E207" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>134</v>
       </c>
@@ -4876,8 +5170,11 @@
       <c r="D208" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E208" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>135</v>
       </c>
@@ -4890,8 +5187,11 @@
       <c r="D209" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E209" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>135</v>
       </c>
@@ -4904,8 +5204,11 @@
       <c r="D210" s="3">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E210" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>136</v>
       </c>
@@ -4918,8 +5221,11 @@
       <c r="D211" s="3">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E211" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>137</v>
       </c>
@@ -4932,8 +5238,11 @@
       <c r="D212" s="3">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E212" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>137</v>
       </c>
@@ -4946,8 +5255,11 @@
       <c r="D213" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E213" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>137</v>
       </c>
@@ -4961,7 +5273,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>138</v>
       </c>
@@ -4974,8 +5286,11 @@
       <c r="D215" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E215" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>138</v>
       </c>
@@ -4988,8 +5303,11 @@
       <c r="D216" s="3">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E216" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>138</v>
       </c>
@@ -5002,8 +5320,11 @@
       <c r="D217" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E217" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>139</v>
       </c>
@@ -5016,8 +5337,11 @@
       <c r="D218" s="3">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E218" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>140</v>
       </c>
@@ -5030,8 +5354,11 @@
       <c r="D219" s="3">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E219" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>141</v>
       </c>
@@ -5044,8 +5371,11 @@
       <c r="D220" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E220" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>142</v>
       </c>
@@ -5058,8 +5388,11 @@
       <c r="D221" s="3">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E221" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>143</v>
       </c>
@@ -5072,8 +5405,11 @@
       <c r="D222" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E222" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>144</v>
       </c>
@@ -5086,8 +5422,11 @@
       <c r="D223" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E223" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>145</v>
       </c>
@@ -5100,8 +5439,11 @@
       <c r="D224" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E224" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>146</v>
       </c>
@@ -5115,7 +5457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>146</v>
       </c>
@@ -5129,7 +5471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>146</v>
       </c>
@@ -5143,7 +5485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>146</v>
       </c>
@@ -5157,7 +5499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>147</v>
       </c>
@@ -5171,7 +5513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>146</v>
       </c>
@@ -5185,7 +5527,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>146</v>
       </c>
@@ -5199,7 +5541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>146</v>
       </c>
@@ -5213,7 +5555,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>146</v>
       </c>
@@ -5227,7 +5569,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>146</v>
       </c>
@@ -5241,7 +5583,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>146</v>
       </c>
@@ -5255,7 +5597,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>146</v>
       </c>
@@ -5269,7 +5611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>146</v>
       </c>
@@ -5283,7 +5625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>146</v>
       </c>
@@ -5297,7 +5639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>148</v>
       </c>
@@ -5310,8 +5652,11 @@
       <c r="D239" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E239" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>149</v>
       </c>
@@ -5324,8 +5669,11 @@
       <c r="D240" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E240" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>150</v>
       </c>
@@ -5338,8 +5686,11 @@
       <c r="D241" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E241" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>151</v>
       </c>
@@ -5352,8 +5703,11 @@
       <c r="D242" s="3">
         <v>31.25</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E242" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>152</v>
       </c>
@@ -5366,8 +5720,11 @@
       <c r="D243" s="3">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E243" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>153</v>
       </c>
@@ -5380,8 +5737,11 @@
       <c r="D244" s="3">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E244" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>154</v>
       </c>
@@ -5394,8 +5754,11 @@
       <c r="D245" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E245" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>155</v>
       </c>
@@ -5409,7 +5772,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>155</v>
       </c>
@@ -5422,8 +5785,11 @@
       <c r="D247" s="3">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E247" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>156</v>
       </c>
@@ -5436,8 +5802,11 @@
       <c r="D248" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E248" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>157</v>
       </c>
@@ -5450,8 +5819,11 @@
       <c r="D249" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E249" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>158</v>
       </c>
@@ -5464,8 +5836,11 @@
       <c r="D250" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E250" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>158</v>
       </c>
@@ -5478,8 +5853,11 @@
       <c r="D251" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E251" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>159</v>
       </c>
@@ -5492,8 +5870,11 @@
       <c r="D252" s="3">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E252" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>160</v>
       </c>
@@ -5506,8 +5887,11 @@
       <c r="D253" s="3">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E253" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>161</v>
       </c>
@@ -5520,8 +5904,11 @@
       <c r="D254" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E254" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>162</v>
       </c>
@@ -5534,8 +5921,11 @@
       <c r="D255" s="3">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E255" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>163</v>
       </c>
@@ -5548,8 +5938,11 @@
       <c r="D256" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E256" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>164</v>
       </c>
@@ -5562,8 +5955,11 @@
       <c r="D257" s="3">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E257" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>165</v>
       </c>
@@ -5576,8 +5972,11 @@
       <c r="D258" s="3">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E258" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>166</v>
       </c>
@@ -5591,7 +5990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>167</v>
       </c>
@@ -5604,8 +6003,11 @@
       <c r="D260" s="3">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E260" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>168</v>
       </c>
@@ -5618,8 +6020,11 @@
       <c r="D261" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E261" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>169</v>
       </c>
@@ -5632,8 +6037,11 @@
       <c r="D262" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E262" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>170</v>
       </c>
@@ -5646,8 +6054,11 @@
       <c r="D263" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E263" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>171</v>
       </c>
@@ -5660,8 +6071,11 @@
       <c r="D264" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E264" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>172</v>
       </c>
@@ -5674,8 +6088,11 @@
       <c r="D265" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E265" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>173</v>
       </c>
@@ -5688,8 +6105,11 @@
       <c r="D266" s="3">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E266" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>174</v>
       </c>
@@ -5702,8 +6122,11 @@
       <c r="D267" s="3">
         <v>8.75</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E267" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>175</v>
       </c>
@@ -5716,8 +6139,11 @@
       <c r="D268" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E268" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>175</v>
       </c>
@@ -5730,8 +6156,11 @@
       <c r="D269" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E269" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>176</v>
       </c>
@@ -5744,8 +6173,11 @@
       <c r="D270" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E270" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="5" t="s">
         <v>177</v>
       </c>
@@ -5758,8 +6190,11 @@
       <c r="D271" s="4">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E271" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>178</v>
       </c>
@@ -5772,8 +6207,11 @@
       <c r="D272" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E272" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>179</v>
       </c>
@@ -5787,7 +6225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>179</v>
       </c>
@@ -5801,7 +6239,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>180</v>
       </c>
@@ -5814,8 +6252,11 @@
       <c r="D275" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E275" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>181</v>
       </c>
@@ -5829,7 +6270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>181</v>
       </c>
@@ -5843,7 +6284,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>181</v>
       </c>
@@ -5857,7 +6298,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>182</v>
       </c>
@@ -5870,8 +6311,11 @@
       <c r="D279" s="3">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E279" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>183</v>
       </c>
@@ -5884,8 +6328,11 @@
       <c r="D280" s="3">
         <v>8.15</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E280" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>182</v>
       </c>
@@ -5899,7 +6346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>183</v>
       </c>
@@ -5913,7 +6360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>184</v>
       </c>
@@ -5926,8 +6373,11 @@
       <c r="D283" s="3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E283" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>184</v>
       </c>
@@ -5940,8 +6390,11 @@
       <c r="D284" s="3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E284" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>184</v>
       </c>
@@ -5954,8 +6407,11 @@
       <c r="D285" s="3">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E285" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>185</v>
       </c>
@@ -5969,7 +6425,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>185</v>
       </c>
@@ -5983,7 +6439,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>186</v>
       </c>
@@ -5997,7 +6453,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>186</v>
       </c>
@@ -6011,7 +6467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>186</v>
       </c>
@@ -6025,7 +6481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>187</v>
       </c>
@@ -6039,7 +6495,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>188</v>
       </c>
@@ -6053,7 +6509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>188</v>
       </c>
@@ -6067,7 +6523,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>187</v>
       </c>
@@ -6081,7 +6537,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>187</v>
       </c>
@@ -6095,7 +6551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>187</v>
       </c>
@@ -6109,7 +6565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>189</v>
       </c>
@@ -6122,8 +6578,11 @@
       <c r="D297" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E297" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>190</v>
       </c>
@@ -6136,8 +6595,11 @@
       <c r="D298" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E298" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>191</v>
       </c>
@@ -6151,7 +6613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>191</v>
       </c>
@@ -6165,7 +6627,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>191</v>
       </c>
@@ -6179,7 +6641,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>192</v>
       </c>
@@ -6193,7 +6655,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>192</v>
       </c>
@@ -6207,7 +6669,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>192</v>
       </c>
@@ -6221,7 +6683,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>192</v>
       </c>
@@ -6235,7 +6697,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>192</v>
       </c>
@@ -6249,7 +6711,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>192</v>
       </c>
@@ -6263,7 +6725,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>192</v>
       </c>
@@ -6277,7 +6739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>192</v>
       </c>
@@ -6291,7 +6753,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>192</v>
       </c>
@@ -6305,7 +6767,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>193</v>
       </c>
@@ -6318,8 +6780,11 @@
       <c r="D311" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E311" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>194</v>
       </c>
@@ -6333,7 +6798,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>195</v>
       </c>
@@ -6346,8 +6811,11 @@
       <c r="D313" s="4">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E313" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>196</v>
       </c>
@@ -6360,8 +6828,11 @@
       <c r="D314" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E314" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>197</v>
       </c>
@@ -6374,8 +6845,11 @@
       <c r="D315" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E315" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>198</v>
       </c>
@@ -6388,8 +6862,11 @@
       <c r="D316" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E316" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>199</v>
       </c>
@@ -6403,7 +6880,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>199</v>
       </c>
@@ -6417,7 +6894,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>200</v>
       </c>
@@ -6431,7 +6908,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>201</v>
       </c>
@@ -6444,8 +6921,11 @@
       <c r="D320" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E320" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>202</v>
       </c>
@@ -6458,8 +6938,11 @@
       <c r="D321" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E321" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>203</v>
       </c>
@@ -6472,8 +6955,11 @@
       <c r="D322" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E322" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>204</v>
       </c>
@@ -6487,7 +6973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>204</v>
       </c>
@@ -6501,7 +6987,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>205</v>
       </c>
@@ -6515,7 +7001,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>206</v>
       </c>
@@ -6527,6 +7013,9 @@
       </c>
       <c r="D326" s="3">
         <v>2.5</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>
